--- a/src/main/java/com/dd/testData/FreeCRM_TestData.xlsx
+++ b/src/main/java/com/dd/testData/FreeCRM_TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>gghgh</t>
   </si>
@@ -83,6 +83,33 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>Baburao</t>
+  </si>
+  <si>
+    <t>Apte</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Rastogi</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="227" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1027,10 +1054,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
@@ -1038,21 +1065,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
@@ -1060,10 +1087,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
@@ -1071,10 +1098,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>21</v>
